--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedanshd\eclipse-workspace\MyStoreProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF681D7-106A-460D-A987-4C7DD2E17D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4625135B-271A-40B4-A92E-CB61FCD095B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="2" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA38D51-EC5B-443F-A2BF-BD98ABAA81E9}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -619,7 +619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -636,7 +636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -653,7 +653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -670,7 +670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -687,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -704,7 +704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -719,7 +719,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -730,7 +730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -739,7 +739,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
